--- a/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_expert.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_expert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\sri coding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{4B117B54-8B1F-4930-8544-C8E3FF8A5375}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BD65A911-09B2-406C-B0FB-D76B99F329E4}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{4B117B54-8B1F-4930-8544-C8E3FF8A5375}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{81312A99-61F6-4A30-A344-09D2B1A36643}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{62789846-DE95-45C1-A820-53E90CFB7279}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
   <si>
     <t>chatting</t>
   </si>
@@ -60,9 +60,6 @@
     <t>03</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t xml:space="preserve">chatting </t>
   </si>
   <si>
@@ -72,22 +69,22 @@
     <t>01</t>
   </si>
   <si>
-    <t>script</t>
-  </si>
-  <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t>disturbing_factor</t>
-  </si>
-  <si>
-    <t>safety_factor</t>
-  </si>
-  <si>
-    <t>dispersion_school</t>
-  </si>
-  <si>
-    <t>group</t>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Disturbing_Factor</t>
+  </si>
+  <si>
+    <t>Dispersion_School</t>
+  </si>
+  <si>
+    <t>Confident_Factor</t>
   </si>
 </sst>
 </file>
@@ -487,7 +484,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,14 +492,14 @@
     <col min="1" max="2" width="11.5546875" style="1"/>
     <col min="3" max="3" width="23.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>15</v>
@@ -514,10 +511,10 @@
         <v>17</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -525,7 +522,7 @@
         <v>201</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -545,7 +542,7 @@
         <v>201</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -565,7 +562,7 @@
         <v>201</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -585,7 +582,7 @@
         <v>201</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -605,7 +602,7 @@
         <v>201</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -625,7 +622,7 @@
         <v>201</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -645,16 +642,10 @@
         <v>201</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -665,7 +656,7 @@
         <v>201</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -685,7 +676,7 @@
         <v>201</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
@@ -705,7 +696,7 @@
         <v>202</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -725,7 +716,7 @@
         <v>202</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
@@ -745,7 +736,7 @@
         <v>202</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -765,7 +756,7 @@
         <v>202</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -785,7 +776,7 @@
         <v>202</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -805,7 +796,7 @@
         <v>202</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -825,16 +816,10 @@
         <v>202</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="1">
         <v>9</v>
@@ -845,7 +830,7 @@
         <v>202</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -865,10 +850,10 @@
         <v>202</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="5">
         <v>9</v>
@@ -989,12 +974,6 @@
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>

--- a/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_expert.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_expert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\sri coding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{4B117B54-8B1F-4930-8544-C8E3FF8A5375}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{81312A99-61F6-4A30-A344-09D2B1A36643}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{4B117B54-8B1F-4930-8544-C8E3FF8A5375}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{97AE1175-C184-4C6C-AA75-3B8035DFE225}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{62789846-DE95-45C1-A820-53E90CFB7279}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="21">
   <si>
     <t>chatting</t>
   </si>
@@ -78,13 +78,16 @@
     <t>Event</t>
   </si>
   <si>
-    <t>Disturbing_Factor</t>
-  </si>
-  <si>
     <t>Dispersion_School</t>
   </si>
   <si>
     <t>Confident_Factor</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Disruption_Factor</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,13 +511,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1220,31 +1223,184 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="4"/>
+      <c r="A38" s="1">
+        <v>205</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1">
+        <v>9</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="4"/>
+      <c r="A39" s="1">
+        <v>205</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="4"/>
+      <c r="A40" s="1">
+        <v>205</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>8</v>
+      </c>
+      <c r="F40" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="4"/>
+      <c r="A41" s="1">
+        <v>205</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1">
+        <v>9</v>
+      </c>
+      <c r="F41" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="4"/>
+      <c r="A42" s="1">
+        <v>205</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1">
+        <v>9</v>
+      </c>
+      <c r="F42" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="4"/>
+      <c r="A43" s="1">
+        <v>205</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>9</v>
+      </c>
+      <c r="F43" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="4"/>
+      <c r="A44" s="1">
+        <v>205</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>9</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="4"/>
+      <c r="A45" s="1">
+        <v>205</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1">
+        <v>6</v>
+      </c>
+      <c r="F45" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="3"/>
+      <c r="A46" s="2">
+        <v>205</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>5</v>
+      </c>
+      <c r="E46" s="2">
+        <v>9</v>
+      </c>
+      <c r="F46" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>

--- a/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_expert.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_expert.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\sri coding\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{4B117B54-8B1F-4930-8544-C8E3FF8A5375}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{97AE1175-C184-4C6C-AA75-3B8035DFE225}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{D7849BBC-B12A-41D3-85AA-63B28D16D775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{62789846-DE95-45C1-A820-53E90CFB7279}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="23">
   <si>
     <t>chatting</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Disruption_Factor</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
   </si>
 </sst>
 </file>
@@ -487,7 +493,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1403,58 +1409,364 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="4"/>
+      <c r="A47" s="1">
+        <v>206</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1">
+        <v>4</v>
+      </c>
+      <c r="E47" s="1">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="4"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="4"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="4"/>
-    </row>
-    <row r="64" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="3"/>
+      <c r="A48" s="1">
+        <v>206</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>10</v>
+      </c>
+      <c r="F48" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>206</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>206</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>206</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>206</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1">
+        <v>5</v>
+      </c>
+      <c r="E52" s="1">
+        <v>9</v>
+      </c>
+      <c r="F52" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>206</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>9</v>
+      </c>
+      <c r="F53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>206</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>206</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5">
+        <v>10</v>
+      </c>
+      <c r="F55" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>207</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1">
+        <v>4</v>
+      </c>
+      <c r="E56" s="1">
+        <v>8</v>
+      </c>
+      <c r="F56" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>207</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>207</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="1">
+        <v>10</v>
+      </c>
+      <c r="E58" s="1">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>207</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1">
+        <v>5</v>
+      </c>
+      <c r="F59" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>207</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1">
+        <v>5</v>
+      </c>
+      <c r="E60" s="1">
+        <v>8</v>
+      </c>
+      <c r="F60" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>207</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1">
+        <v>7</v>
+      </c>
+      <c r="E61" s="1">
+        <v>6</v>
+      </c>
+      <c r="F61" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>207</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>6</v>
+      </c>
+      <c r="E62" s="1">
+        <v>5</v>
+      </c>
+      <c r="F62" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>207</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>9</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>207</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>7</v>
+      </c>
+      <c r="E64" s="2">
+        <v>7</v>
+      </c>
+      <c r="F64" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>

--- a/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_expert.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_expert.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\sri coding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{D7849BBC-B12A-41D3-85AA-63B28D16D775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="14_{D7849BBC-B12A-41D3-85AA-63B28D16D775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{290A0622-D4D7-4F82-8CE7-342E3479F3C5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{62789846-DE95-45C1-A820-53E90CFB7279}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>heckling</t>
   </si>
   <si>
-    <t>locking at phone</t>
-  </si>
-  <si>
     <t>whispering</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>07</t>
+  </si>
+  <si>
+    <t>looking at phone</t>
   </si>
 </sst>
 </file>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C0E486-7584-4ABC-84CD-0E667E60029F}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,22 +508,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -531,10 +531,10 @@
         <v>201</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>7</v>
@@ -551,7 +551,7 @@
         <v>201</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -571,10 +571,10 @@
         <v>201</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -591,7 +591,7 @@
         <v>201</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -611,10 +611,10 @@
         <v>201</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
@@ -631,7 +631,7 @@
         <v>201</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -651,7 +651,7 @@
         <v>201</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -665,7 +665,7 @@
         <v>201</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -685,7 +685,7 @@
         <v>201</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>202</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -725,7 +725,7 @@
         <v>202</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
@@ -745,10 +745,10 @@
         <v>202</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>202</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -785,10 +785,10 @@
         <v>202</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -805,7 +805,7 @@
         <v>202</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -825,10 +825,10 @@
         <v>202</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1">
         <v>9</v>
@@ -839,7 +839,7 @@
         <v>202</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -859,10 +859,10 @@
         <v>202</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="5">
         <v>9</v>
@@ -879,7 +879,7 @@
         <v>203</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
@@ -899,7 +899,7 @@
         <v>203</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
@@ -919,7 +919,7 @@
         <v>203</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -939,7 +939,7 @@
         <v>203</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -959,10 +959,10 @@
         <v>203</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1">
         <v>5</v>
@@ -979,7 +979,7 @@
         <v>203</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -993,10 +993,10 @@
         <v>203</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -1013,10 +1013,10 @@
         <v>203</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1">
         <v>4</v>
@@ -1033,7 +1033,7 @@
         <v>203</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>204</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>204</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -1093,7 +1093,7 @@
         <v>204</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
@@ -1113,7 +1113,7 @@
         <v>204</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1133,7 +1133,7 @@
         <v>204</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -1153,10 +1153,10 @@
         <v>204</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -1173,10 +1173,10 @@
         <v>204</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>204</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>204</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>205</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -1253,7 +1253,7 @@
         <v>205</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1273,7 +1273,7 @@
         <v>205</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>1</v>
@@ -1293,10 +1293,10 @@
         <v>205</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D41" s="1">
         <v>10</v>
@@ -1313,7 +1313,7 @@
         <v>205</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
@@ -1333,10 +1333,10 @@
         <v>205</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -1353,7 +1353,7 @@
         <v>205</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -1373,10 +1373,10 @@
         <v>205</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" s="1">
         <v>7</v>
@@ -1393,7 +1393,7 @@
         <v>205</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>206</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1433,10 +1433,10 @@
         <v>206</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -1453,7 +1453,7 @@
         <v>206</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -1473,10 +1473,10 @@
         <v>206</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
@@ -1493,7 +1493,7 @@
         <v>206</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1</v>
@@ -1513,10 +1513,10 @@
         <v>206</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" s="1">
         <v>5</v>
@@ -1533,7 +1533,7 @@
         <v>206</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>3</v>
@@ -1553,7 +1553,7 @@
         <v>206</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>5</v>
@@ -1573,7 +1573,7 @@
         <v>206</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>207</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D56" s="1">
         <v>4</v>
@@ -1613,10 +1613,10 @@
         <v>207</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>207</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
@@ -1653,10 +1653,10 @@
         <v>207</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59" s="1">
         <v>5</v>
@@ -1673,7 +1673,7 @@
         <v>207</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
@@ -1693,7 +1693,7 @@
         <v>207</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
@@ -1713,7 +1713,7 @@
         <v>207</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>1</v>
@@ -1733,7 +1733,7 @@
         <v>207</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>3</v>
@@ -1753,7 +1753,7 @@
         <v>207</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>0</v>

--- a/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_expert.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/coding_sri_expert.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\sri coding\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="14_{D7849BBC-B12A-41D3-85AA-63B28D16D775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{290A0622-D4D7-4F82-8CE7-342E3479F3C5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{FC44C677-5464-4EAD-A476-D79333904AFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{62789846-DE95-45C1-A820-53E90CFB7279}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="25">
   <si>
     <t>chatting</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>looking at phone</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>locking at phone</t>
   </si>
 </sst>
 </file>
@@ -150,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,6 +180,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -490,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C0E486-7584-4ABC-84CD-0E667E60029F}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1768,33 +1786,365 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="4"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="4"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="4"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="4"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="4"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="4"/>
-    </row>
-    <row r="73" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="3"/>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <v>208</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="9">
+        <v>2</v>
+      </c>
+      <c r="E65" s="9">
+        <v>9</v>
+      </c>
+      <c r="F65" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>208</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="9">
+        <v>9</v>
+      </c>
+      <c r="E66" s="9">
+        <v>7</v>
+      </c>
+      <c r="F66" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
+        <v>208</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="9">
+        <v>2</v>
+      </c>
+      <c r="E67" s="9">
+        <v>10</v>
+      </c>
+      <c r="F67" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <v>208</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="9">
+        <v>8</v>
+      </c>
+      <c r="E68" s="9">
+        <v>4</v>
+      </c>
+      <c r="F68" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
+        <v>208</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="9">
+        <v>4</v>
+      </c>
+      <c r="E69" s="9">
+        <v>8</v>
+      </c>
+      <c r="F69" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
+        <v>208</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="9">
+        <v>0</v>
+      </c>
+      <c r="E70" s="9">
+        <v>10</v>
+      </c>
+      <c r="F70" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
+        <v>208</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="9">
+        <v>5</v>
+      </c>
+      <c r="E71" s="9">
+        <v>8</v>
+      </c>
+      <c r="F71" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
+        <v>208</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="9">
+        <v>0</v>
+      </c>
+      <c r="E72" s="9">
+        <v>10</v>
+      </c>
+      <c r="F72" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="11">
+        <v>208</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="11">
+        <v>8</v>
+      </c>
+      <c r="E73" s="11">
+        <v>9</v>
+      </c>
+      <c r="F73" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="9">
+        <v>209</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="9">
+        <v>2</v>
+      </c>
+      <c r="E74" s="9">
+        <v>9</v>
+      </c>
+      <c r="F74" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
+        <v>209</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="9">
+        <v>4</v>
+      </c>
+      <c r="E75" s="9">
+        <v>9</v>
+      </c>
+      <c r="F75" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="9">
+        <v>209</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="9">
+        <v>1</v>
+      </c>
+      <c r="E76" s="9">
+        <v>9</v>
+      </c>
+      <c r="F76" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="9">
+        <v>209</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="9">
+        <v>4</v>
+      </c>
+      <c r="E77" s="9">
+        <v>9</v>
+      </c>
+      <c r="F77" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="9">
+        <v>209</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="9">
+        <v>1</v>
+      </c>
+      <c r="E78" s="9">
+        <v>9</v>
+      </c>
+      <c r="F78" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="9">
+        <v>209</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="9">
+        <v>2</v>
+      </c>
+      <c r="E79" s="9">
+        <v>9</v>
+      </c>
+      <c r="F79" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="9">
+        <v>209</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="9">
+        <v>5</v>
+      </c>
+      <c r="E80" s="9">
+        <v>9</v>
+      </c>
+      <c r="F80" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="9">
+        <v>209</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="9">
+        <v>4</v>
+      </c>
+      <c r="E81" s="9">
+        <v>9</v>
+      </c>
+      <c r="F81" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="11">
+        <v>209</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="11">
+        <v>3</v>
+      </c>
+      <c r="E82" s="11">
+        <v>9</v>
+      </c>
+      <c r="F82" s="11">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
